--- a/Datos/Database by set/Set with text box/Xlsx sets/Urza's Saga Promos (PUSG).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Urza's Saga Promos (PUSG).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,49 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lightning Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{2}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Echo {2}{R}{R} (At the beginning of your upkeep, if this came under your control since the beginning of your last upkeep, sacrifice it unless you pay its echo cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{R}: Lightning Dragon gets +1/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4/4</t>
+          <t>('Lightning Dragon', ['{2}{R}{R}', 'Creature — Dragon', 'Flying', 'Echo {2}{R}{R} (At the beginning of your upkeep, if this came under your control since the beginning of your last upkeep, sacrifice it unless you pay its echo cost.)', '{R}: Lightning Dragon gets +1/+0 until end of turn.', '4/4'])</t>
         </is>
       </c>
     </row>
